--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H2">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I2">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J2">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>66.25891939597956</v>
+        <v>20.02876220466912</v>
       </c>
       <c r="R2">
-        <v>596.3302745638159</v>
+        <v>180.258859842022</v>
       </c>
       <c r="S2">
-        <v>0.002456860618614463</v>
+        <v>0.005330925404364898</v>
       </c>
       <c r="T2">
-        <v>0.003623674717061449</v>
+        <v>0.006149918414499543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H3">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I3">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J3">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>436.3571430419188</v>
+        <v>101.3911402246261</v>
       </c>
       <c r="R3">
-        <v>3927.21428737727</v>
+        <v>912.5202620216351</v>
       </c>
       <c r="S3">
-        <v>0.01617999040980224</v>
+        <v>0.0269866205249059</v>
       </c>
       <c r="T3">
-        <v>0.02386420366140339</v>
+        <v>0.03113258992056792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H4">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I4">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J4">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>366.4575147086595</v>
+        <v>118.1718698218017</v>
       </c>
       <c r="R4">
-        <v>3298.117632377935</v>
+        <v>1063.546828396215</v>
       </c>
       <c r="S4">
-        <v>0.01358813340891379</v>
+        <v>0.03145303820959472</v>
       </c>
       <c r="T4">
-        <v>0.0200414199783572</v>
+        <v>0.03628518581759992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H5">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I5">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J5">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>161.8509621536543</v>
+        <v>36.09690205440018</v>
       </c>
       <c r="R5">
-        <v>971.1057729219259</v>
+        <v>216.581412326401</v>
       </c>
       <c r="S5">
-        <v>0.006001384547546687</v>
+        <v>0.009607677709400035</v>
       </c>
       <c r="T5">
-        <v>0.00590104441620634</v>
+        <v>0.007389140356661377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H6">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I6">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J6">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>377.2559553146365</v>
+        <v>136.9770521902911</v>
       </c>
       <c r="R6">
-        <v>3395.303597831728</v>
+        <v>1232.79346971262</v>
       </c>
       <c r="S6">
-        <v>0.01398853630876673</v>
+        <v>0.03645829132496323</v>
       </c>
       <c r="T6">
-        <v>0.02063198252547206</v>
+        <v>0.04205939872972062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J7">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>79.72177777100622</v>
+        <v>103.7119545176116</v>
       </c>
       <c r="R7">
-        <v>717.495999939056</v>
+        <v>933.407590658504</v>
       </c>
       <c r="S7">
-        <v>0.002956059320572073</v>
+        <v>0.02760433657479764</v>
       </c>
       <c r="T7">
-        <v>0.004359953243148055</v>
+        <v>0.03184520602790468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>22.384924</v>
       </c>
       <c r="I8">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J8">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>525.0186315065355</v>
@@ -948,10 +948,10 @@
         <v>4725.16768355882</v>
       </c>
       <c r="S8">
-        <v>0.01946753148928556</v>
+        <v>0.1397407953553224</v>
       </c>
       <c r="T8">
-        <v>0.02871306623047453</v>
+        <v>0.1612092508195383</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>22.384924</v>
       </c>
       <c r="I9">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J9">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>440.9164051638862</v>
+        <v>611.9117828141533</v>
       </c>
       <c r="R9">
-        <v>3968.247646474976</v>
+        <v>5507.20604532738</v>
       </c>
       <c r="S9">
-        <v>0.01634904646534186</v>
+        <v>0.1628685804394709</v>
       </c>
       <c r="T9">
-        <v>0.02411354794637571</v>
+        <v>0.1878901702822517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>22.384924</v>
       </c>
       <c r="I10">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J10">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>194.7367472102193</v>
+        <v>186.9152085304553</v>
       </c>
       <c r="R10">
-        <v>1168.420483261316</v>
+        <v>1121.491251182732</v>
       </c>
       <c r="S10">
-        <v>0.007220779475116198</v>
+        <v>0.04975000568856314</v>
       </c>
       <c r="T10">
-        <v>0.007100051673860898</v>
+        <v>0.03826208433468059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>22.384924</v>
       </c>
       <c r="I11">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J11">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>453.9089334168498</v>
+        <v>709.2878562113156</v>
       </c>
       <c r="R11">
-        <v>4085.180400751648</v>
+        <v>6383.59070590184</v>
       </c>
       <c r="S11">
-        <v>0.0168308054691399</v>
+        <v>0.1887865367338054</v>
       </c>
       <c r="T11">
-        <v>0.02482410429969631</v>
+        <v>0.2177899164970858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H12">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I12">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J12">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>1122.984917600589</v>
+        <v>58.60989084895967</v>
       </c>
       <c r="R12">
-        <v>6737.909505603536</v>
+        <v>351.659345093758</v>
       </c>
       <c r="S12">
-        <v>0.04163993986775322</v>
+        <v>0.01559981355217925</v>
       </c>
       <c r="T12">
-        <v>0.04094374101526633</v>
+        <v>0.01199761434149928</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H13">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I13">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J13">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>7395.570208364903</v>
+        <v>296.6994964986691</v>
       </c>
       <c r="R13">
-        <v>44373.42125018941</v>
+        <v>1780.196978992015</v>
       </c>
       <c r="S13">
-        <v>0.2742254984350468</v>
+        <v>0.07897057577418871</v>
       </c>
       <c r="T13">
-        <v>0.2696405860182791</v>
+        <v>0.06073524592430174</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H14">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I14">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J14">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>6210.880975885509</v>
+        <v>345.8047142852725</v>
       </c>
       <c r="R14">
-        <v>37265.28585531306</v>
+        <v>2074.828285711635</v>
       </c>
       <c r="S14">
-        <v>0.2302975813016469</v>
+        <v>0.09204059229894677</v>
       </c>
       <c r="T14">
-        <v>0.2264471215665483</v>
+        <v>0.07078722617243516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H15">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I15">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J15">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>2743.120338432899</v>
+        <v>105.6298670768972</v>
       </c>
       <c r="R15">
-        <v>10972.48135373159</v>
+        <v>422.519468307589</v>
       </c>
       <c r="S15">
-        <v>0.1017140694876032</v>
+        <v>0.02811481488999094</v>
       </c>
       <c r="T15">
-        <v>0.0666756409340918</v>
+        <v>0.01441515973698422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H16">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I16">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J16">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>6393.897633033916</v>
+        <v>400.8340603201967</v>
       </c>
       <c r="R16">
-        <v>38363.38579820349</v>
+        <v>2405.00436192118</v>
       </c>
       <c r="S16">
-        <v>0.2370837833948502</v>
+        <v>0.1066873955195061</v>
       </c>
       <c r="T16">
-        <v>0.2331198617737585</v>
+        <v>0.08205189262426923</v>
       </c>
     </row>
   </sheetData>
